--- a/assets/รายการข้อมูลผู้ป่วยในนอกจาก3กองทุน.xlsx
+++ b/assets/รายการข้อมูลผู้ป่วยในนอกจาก3กองทุน.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jay\BOD2022\โปรเจค หมอป๊อป\data_3_กองทุน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanawat/Documents/GitHub/Heroku/PHIDS/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8241777-C962-44A3-B9B0-B76334E766A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958FC0A-5667-F04A-9947-8DAED6593186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42508E0C-4417-4083-AF4B-051D0F63ABDE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{42508E0C-4417-4083-AF4B-051D0F63ABDE}"/>
   </bookViews>
   <sheets>
     <sheet name="รายการข้อมูล" sheetId="1" r:id="rId1"/>
@@ -1086,12 +1086,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="BrowalliaUPC"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1205,68 +1212,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,30 +1611,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9AE6E-0C3C-446F-BDBE-173D99F042A1}">
   <dimension ref="C2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="7.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.3984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:7" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="12" t="s">
         <v>161</v>
       </c>
@@ -1643,7 +1651,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="13">
         <v>1</v>
       </c>
@@ -1660,7 +1668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="13">
         <v>2</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="13">
         <v>3</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13">
         <v>4</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13">
         <v>5</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13">
         <v>6</v>
       </c>
@@ -1746,7 +1754,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1755,25 +1763,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F770633C-3CA4-4E59-B238-62DF231DD1BD}">
   <dimension ref="C2:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="str">
         <f>รายการข้อมูล!D5</f>
         <v>ข้อมูลผู้ป่วยนอก สิทธิหลักประกันสุขภาพแห่งชาติ(UC) และสิทธิสวัสดิการพนักงานส่วนท้องถิ่น (LGO)</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <v>2</v>
       </c>
@@ -1815,7 +1823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>3</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>4</v>
       </c>
@@ -1843,7 +1851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>5</v>
       </c>
@@ -1857,7 +1865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>6</v>
       </c>
@@ -1871,7 +1879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>7</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>8</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>9</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>10</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>11</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>12</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>13</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>14</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>15</v>
       </c>
@@ -1997,7 +2005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>16</v>
       </c>
@@ -2011,7 +2019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>17</v>
       </c>
@@ -2025,7 +2033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>18</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>19</v>
       </c>
@@ -2053,7 +2061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>20</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -2081,7 +2089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>22</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <v>23</v>
       </c>
@@ -2109,7 +2117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <v>24</v>
       </c>
@@ -2123,7 +2131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <v>25</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>26</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <v>27</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <v>28</v>
       </c>
@@ -2179,7 +2187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>29</v>
       </c>
@@ -2193,7 +2201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>30</v>
       </c>
@@ -2207,7 +2215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>31</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>32</v>
       </c>
@@ -2235,7 +2243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>33</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>34</v>
       </c>
@@ -2263,7 +2271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38" s="5">
         <v>35</v>
       </c>
@@ -2277,7 +2285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="5">
         <v>36</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="5">
         <v>37</v>
       </c>
@@ -2305,7 +2313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" s="5">
         <v>38</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C42" s="5">
         <v>39</v>
       </c>
@@ -2333,7 +2341,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C43" s="5">
         <v>40</v>
       </c>
@@ -2347,7 +2355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C44" s="5">
         <v>41</v>
       </c>
@@ -2361,7 +2369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C45" s="5">
         <v>42</v>
       </c>
@@ -2375,7 +2383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" s="5">
         <v>43</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="5">
         <v>44</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="5">
         <v>45</v>
       </c>
@@ -2417,7 +2425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="5">
         <v>46</v>
       </c>
@@ -2431,7 +2439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="5">
         <v>47</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" s="5">
         <v>48</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="5">
         <v>49</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" s="5">
         <v>50</v>
       </c>
@@ -2487,7 +2495,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" s="5">
         <v>51</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="5">
         <v>52</v>
       </c>
@@ -2515,7 +2523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" s="5">
         <v>53</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C57" s="5">
         <v>54</v>
       </c>
@@ -2543,7 +2551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" s="5">
         <v>55</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C59" s="5">
         <v>56</v>
       </c>
@@ -2571,7 +2579,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" s="5">
         <v>57</v>
       </c>
@@ -2585,7 +2593,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="5">
         <v>58</v>
       </c>
@@ -2599,7 +2607,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" s="5">
         <v>59</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" s="5">
         <v>60</v>
       </c>
@@ -2627,7 +2635,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C64" s="5">
         <v>61</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" s="5">
         <v>62</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" s="5">
         <v>63</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" s="5">
         <v>64</v>
       </c>
@@ -2683,7 +2691,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C68" s="5">
         <v>65</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C69" s="5">
         <v>66</v>
       </c>
@@ -2711,7 +2719,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C70" s="5">
         <v>67</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C71" s="5">
         <v>68</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C72" s="5">
         <v>69</v>
       </c>
@@ -2753,7 +2761,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C73" s="5">
         <v>70</v>
       </c>
@@ -2767,7 +2775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C74" s="5">
         <v>71</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C75" s="5">
         <v>72</v>
       </c>
@@ -2795,7 +2803,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C76" s="5">
         <v>73</v>
       </c>
@@ -2809,7 +2817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C77" s="5">
         <v>74</v>
       </c>
@@ -2823,7 +2831,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C78" s="5">
         <v>75</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C79" s="5">
         <v>76</v>
       </c>
@@ -2851,7 +2859,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C80" s="5">
         <v>77</v>
       </c>
@@ -2874,28 +2882,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B487AC-3B60-4EC0-8A44-F0E9987E6047}">
   <dimension ref="C2:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C2" s="26" t="str">
         <f>รายการข้อมูล!D6</f>
         <v>ข้อมูลผู้ป่วยในและข้อมูลผู้ป่วยนอกสิทธิหลักประกันสุขภาพแห่งชาติ(UC) และสิทธิสวัสดิการพนักงานส่วนท้องถิ่น (LGO)</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2909,7 +2917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="9">
         <v>1</v>
       </c>
@@ -2923,7 +2931,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="9">
         <v>2</v>
       </c>
@@ -2937,7 +2945,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" s="9">
         <v>3</v>
       </c>
@@ -2951,7 +2959,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" s="9">
         <v>4</v>
       </c>
@@ -2965,7 +2973,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>5</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9" s="9">
         <v>6</v>
       </c>
@@ -2993,7 +3001,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>7</v>
       </c>
@@ -3007,7 +3015,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11" s="9">
         <v>8</v>
       </c>
@@ -3021,7 +3029,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>9</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13" s="9">
         <v>10</v>
       </c>
@@ -3049,7 +3057,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>11</v>
       </c>
@@ -3063,7 +3071,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C15" s="9">
         <v>12</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>13</v>
       </c>
@@ -3091,7 +3099,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="9">
         <v>14</v>
       </c>
@@ -3105,7 +3113,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>15</v>
       </c>
@@ -3119,7 +3127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="9">
         <v>16</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>17</v>
       </c>
@@ -3147,7 +3155,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="9">
         <v>18</v>
       </c>
@@ -3161,7 +3169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>19</v>
       </c>
@@ -3175,7 +3183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="9">
         <v>20</v>
       </c>
@@ -3189,7 +3197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>21</v>
       </c>
@@ -3203,7 +3211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="9">
         <v>22</v>
       </c>
@@ -3217,7 +3225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>23</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="9">
         <v>24</v>
       </c>
@@ -3245,7 +3253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>25</v>
       </c>
@@ -3259,7 +3267,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="9">
         <v>26</v>
       </c>
@@ -3273,7 +3281,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>27</v>
       </c>
@@ -3287,7 +3295,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="9">
         <v>28</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>29</v>
       </c>
@@ -3315,7 +3323,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="9">
         <v>30</v>
       </c>
@@ -3329,7 +3337,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>31</v>
       </c>
@@ -3343,7 +3351,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="9">
         <v>32</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="9">
         <v>33</v>
       </c>
@@ -3371,7 +3379,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="9">
         <v>34</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="9">
         <v>35</v>
       </c>
@@ -3399,7 +3407,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="9">
         <v>36</v>
       </c>
@@ -3413,7 +3421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="9">
         <v>37</v>
       </c>
@@ -3427,7 +3435,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="9">
         <v>38</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="9">
         <v>39</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="9">
         <v>40</v>
       </c>
@@ -3469,7 +3477,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="9">
         <v>41</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="9">
         <v>42</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="9">
         <v>43</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="9">
         <v>44</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="9">
         <v>45</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="9">
         <v>46</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="9">
         <v>47</v>
       </c>
@@ -3567,7 +3575,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="9">
         <v>48</v>
       </c>
@@ -3581,7 +3589,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="9">
         <v>49</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="9">
         <v>50</v>
       </c>
@@ -3609,7 +3617,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="9">
         <v>51</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="9">
         <v>52</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="9">
         <v>53</v>
       </c>
@@ -3651,7 +3659,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="9">
         <v>54</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="9">
         <v>55</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="9">
         <v>56</v>
       </c>
@@ -3693,7 +3701,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="9">
         <v>57</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="9">
         <v>58</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
         <v>59</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="9">
         <v>60</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="9">
         <v>61</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="9">
         <v>62</v>
       </c>
@@ -3777,7 +3785,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="9">
         <v>63</v>
       </c>
@@ -3791,7 +3799,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="9">
         <v>64</v>
       </c>
@@ -3815,27 +3823,27 @@
   <dimension ref="C2:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9" style="8"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="24" t="str">
         <f>รายการข้อมูล!D7</f>
         <v xml:space="preserve">ข้อมูลผู้ป่วยใน สิทธิประกันสังคม (SSS) </v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
         <v>251</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="9">
         <v>1</v>
       </c>
@@ -3869,7 +3877,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="9">
         <v>2</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="9">
         <v>3</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="9">
         <v>4</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>5</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="9">
         <v>6</v>
       </c>
@@ -3954,7 +3962,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>7</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="9">
         <v>8</v>
       </c>
@@ -3988,7 +3996,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>9</v>
       </c>
@@ -4005,7 +4013,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="9">
         <v>10</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>11</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="9">
         <v>12</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>13</v>
       </c>
@@ -4073,7 +4081,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="9">
         <v>14</v>
       </c>
@@ -4090,7 +4098,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>15</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" s="9">
         <v>16</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="9" t="s">
         <v>293</v>
       </c>
@@ -4141,7 +4149,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>294</v>
       </c>
@@ -4160,6 +4168,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4167,26 +4176,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56048838-4F64-4493-8C0A-CC9954CAF7AD}">
   <dimension ref="C2:G31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.25" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="24" t="str">
         <f>รายการข้อมูล!D8</f>
         <v xml:space="preserve">ข้อมูลผู้ป่วยใน สิทธิข้าราชการ (OFC) </v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>251</v>
       </c>
@@ -4203,7 +4212,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="9">
         <v>1</v>
       </c>
@@ -4220,7 +4229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="9">
         <v>2</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="9">
         <v>3</v>
       </c>
@@ -4254,7 +4263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="9">
         <v>4</v>
       </c>
@@ -4271,7 +4280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="9">
         <v>5</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="9">
         <v>6</v>
       </c>
@@ -4305,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="9">
         <v>7</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="9">
         <v>8</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="9">
         <v>9</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="9">
         <v>10</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="9">
         <v>11</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
         <v>12</v>
       </c>
@@ -4407,7 +4416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
         <v>13</v>
       </c>
@@ -4424,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="9">
         <v>14</v>
       </c>
@@ -4441,14 +4450,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="9">
         <v>15</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="27" t="s">
         <v>291</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -4458,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="9">
         <v>16</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="9">
         <v>17</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="9" t="s">
         <v>324</v>
       </c>
@@ -4509,7 +4518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>325</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="9">
         <v>47</v>
       </c>
@@ -4543,7 +4552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="9">
         <v>48</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="9">
         <v>49</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="9">
         <v>50</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="9">
         <v>51</v>
       </c>
@@ -4611,7 +4620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="9">
         <v>52</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="9">
         <v>53</v>
       </c>
@@ -4645,7 +4654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="9">
         <v>54</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="9">
         <v>55</v>
       </c>
@@ -4692,22 +4701,22 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:7" ht="23" x14ac:dyDescent="0.35">
       <c r="C2" s="23" t="str">
         <f>รายการข้อมูล!D9</f>
         <v>ข้อมูลผู้ป่วยนอกสิทธิประกันสังคม (SSS)</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
         <v>251</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="18">
         <v>1</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="18">
         <v>2</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="18">
         <v>3</v>
       </c>
@@ -4775,7 +4784,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="18">
         <v>4</v>
       </c>
@@ -4792,7 +4801,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="18">
         <v>5</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="18">
         <v>6</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="18">
         <v>7</v>
       </c>
@@ -4843,7 +4852,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="18">
         <v>8</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="18">
         <v>9</v>
       </c>
@@ -4877,7 +4886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="20" t="s">
         <v>336</v>
       </c>
@@ -4894,7 +4903,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="21" t="s">
         <v>337</v>
       </c>
@@ -4924,21 +4933,21 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:7" ht="23" x14ac:dyDescent="0.35">
       <c r="C2" s="23" t="str">
         <f>รายการข้อมูล!D10</f>
         <v xml:space="preserve">ข้อมูลผู้ป่วยนอก สิทธิข้าราชการ (OFC) </v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
         <v>251</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="18">
         <v>1</v>
       </c>
@@ -4972,7 +4981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="18">
         <v>2</v>
       </c>
@@ -4989,7 +4998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="18">
         <v>3</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="18">
         <v>4</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="18">
         <v>5</v>
       </c>
@@ -5040,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="18">
         <v>6</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="18">
         <v>7</v>
       </c>
@@ -5074,7 +5083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="18">
         <v>8</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="18">
         <v>9</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="18">
         <v>10</v>
       </c>
@@ -5125,7 +5134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="18">
         <v>11</v>
       </c>
@@ -5142,7 +5151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="18">
         <v>12</v>
       </c>
@@ -5159,7 +5168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" s="18">
         <v>13</v>
       </c>
